--- a/Test_Cases/Test Cases.xlsx
+++ b/Test_Cases/Test Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SQA Projects\OpenCart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OpenCart_SQA_Project_2025\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="464">
   <si>
     <t>Project Name</t>
   </si>
@@ -369,9 +369,6 @@
   </si>
   <si>
     <t>Verify special characters in Email</t>
-  </si>
-  <si>
-    <t>name#email.com</t>
   </si>
   <si>
     <t>Verify redirection after successful registration</t>
@@ -544,12 +541,6 @@
   </si>
   <si>
     <t>TC_REG_026</t>
-  </si>
-  <si>
-    <t>First Name: Muhammad
-Last Name: Usman
-Email: usman@gmail.com
-Password: test123</t>
   </si>
   <si>
     <t>1. Navigate to Homepage
@@ -566,9 +557,6 @@
 5. Click on "Submit" button.</t>
   </si>
   <si>
-    <t>Email: usman@gmail.com</t>
-  </si>
-  <si>
     <t>1. Navigate to Homepage
 2. Click on "My Account" dropdown in Header
 3. Click on "Register" from the dropdown
@@ -594,13 +582,6 @@
 3. Click on "Register" from the dropdown
 4. Leave last name empty 
 5. Click on "Submit" button</t>
-  </si>
-  <si>
-    <t>abc@gmail / abc@g.com</t>
-  </si>
-  <si>
-    <t>Numbers/special chars in name
-Muh@mmad</t>
   </si>
   <si>
     <t>1. Navigate to Homepage
@@ -882,12 +863,6 @@
     <t>Tester must have DB access (via phpMyAdmin)</t>
   </si>
   <si>
-    <t>First Name: Usman
-Last Name: Ali
-Email: usmanali@example.com
-Password: Test@1234</t>
-  </si>
-  <si>
     <t>1. Click on 'My Account' in the header
 2. Click on 'Register'
 3. Enter valid details in all fields
@@ -1094,12 +1069,6 @@
 Password: validPassword</t>
   </si>
   <si>
-    <t>Email: test@example.comPassword: validPassword</t>
-  </si>
-  <si>
-    <t>User is on the Login page</t>
-  </si>
-  <si>
     <t>Verify password field hides input</t>
   </si>
   <si>
@@ -1115,18 +1084,9 @@
     <t>User is logged in</t>
   </si>
   <si>
-    <t>Verify error for invalid email format</t>
-  </si>
-  <si>
-    <t>Error: "Invalid email format"</t>
-  </si>
-  <si>
     <t>Verify Login page accessible from other pages</t>
   </si>
   <si>
-    <t>Should show placeholders like "E-Mail Address", "Password"</t>
-  </si>
-  <si>
     <t>Verify mobile responsiveness</t>
   </si>
   <si>
@@ -1137,18 +1097,6 @@
   </si>
   <si>
     <t>Properly displayed layout</t>
-  </si>
-  <si>
-    <t>Redirect to originally requested page</t>
-  </si>
-  <si>
-    <t>Verify that the login form fields have appropriate placeholder text</t>
-  </si>
-  <si>
-    <t>1. Navigate to Homepage
-2. Click on "My Account" dropdown in Header
-3. Click on "Login" from the dropdown
-4. Inspect the Email and Password fields</t>
   </si>
   <si>
     <t>User should be logged in successfully</t>
@@ -1198,13 +1146,6 @@
 3. Click on "Login" from the dropdown
 4. Enter the valid email in uppercase and the valid password
 5. Click on "Login" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to Homepage
-2. Click on "My Account" dropdown in Header
-3. Click on "Login" from the dropdown
-4. Enter invalid email format
-5. Click on "Login" button </t>
   </si>
   <si>
     <t>Email: invalidEmail
@@ -1325,6 +1266,502 @@
   <si>
     <t>1. User should remain logged in
 2. "My Account" dropdown should display Logout, Order History, etc.</t>
+  </si>
+  <si>
+    <t>Verify account is temporarily locked after multiple failed login attempts</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage
+2. Click on "My Account" dropdown in Header
+3. Click on "Login" from the dropdown
+4. Enter invalid Email and Password
+5. Click on "Login" button
+6. Repeat steps 4–5 a total of 5 times</t>
+  </si>
+  <si>
+    <t>1. On the 5th attempt, an error should be displayed:
+"Warning: Your account has exceeded allowed number of login attempts. Please try again in 1 hour</t>
+  </si>
+  <si>
+    <t>Verify UI layout and design consistency on Login page</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage
+2. Click on "My Account" dropdown in Header
+3. Click on "Login" from the dropdown
+4. Observe the overall layout of the Login page including:
+- Alignment of Email and Password fields
+- Size and position of “Login” and “Forgotten Password” buttons
+- Visibility and spelling of all labels and placeholders
+- Spacing and padding around fields and sections</t>
+  </si>
+  <si>
+    <t>1. All UI elements should be properly aligned
+2. Buttons should be uniform in size and easily clickable
+3. Labels and placeholders should be clearly visible and free of typos
+4. Page should appear clean and consistently spaced</t>
+  </si>
+  <si>
+    <t>Verify login using keyboard navigation (Tab and Enter keys)</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage
+2. Click on "My Account" dropdown in Header
+3. Click on "Login" from the dropdown
+4. Press Tab key until the cursor focuses on "E-Mail Address" field
+5. Enter valid Email
+6. Press Tab to move to "Password" field
+7. Enter valid Password
+8. Press Tab to highlight "Login" button
+9. Press Enter key to submit</t>
+  </si>
+  <si>
+    <t>1. User should be logged in successfully and redirected to My Account page</t>
+  </si>
+  <si>
+    <t>Email: test@example.com</t>
+  </si>
+  <si>
+    <t>test#example.com</t>
+  </si>
+  <si>
+    <t>First Name: Muhammad
+Last Name: Usman
+Email: test@example.com
+Password: Test@123</t>
+  </si>
+  <si>
+    <t>test@example  /  abc@g.com</t>
+  </si>
+  <si>
+    <t>Numbers/special chars in name
+Te$t</t>
+  </si>
+  <si>
+    <t>First Name: Muhammad
+Last Name: Usman
+Email: test@example.com
+Password: validPassword</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_001</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_002</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_003</t>
+  </si>
+  <si>
+    <t>User is logged out</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_004</t>
+  </si>
+  <si>
+    <t>1. Click on "Continue" button</t>
+  </si>
+  <si>
+    <t>User should be redirected to homepage</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_005</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_006</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_007</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_008</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_009</t>
+  </si>
+  <si>
+    <t>TC_LOGOUT_010</t>
+  </si>
+  <si>
+    <t>User is not logged in</t>
+  </si>
+  <si>
+    <t>Verify that "Logout" option is visible after successful login</t>
+  </si>
+  <si>
+    <t>The "Logout" option should be visible in the dropdown menu</t>
+  </si>
+  <si>
+    <t>1. Click on "My Account" dropdown in Header 2. Click on "Logout" option</t>
+  </si>
+  <si>
+    <t>User should be logged out and redirected to logout confirmation page</t>
+  </si>
+  <si>
+    <t>Verify logout confirmation message after successful logout</t>
+  </si>
+  <si>
+    <t>Message: "You have been logged off your account. It is now safe to leave the computer." should be displayed</t>
+  </si>
+  <si>
+    <t>Verify "Continue" button on logout page navigates to homepage</t>
+  </si>
+  <si>
+    <t>User is on logout confirmation page</t>
+  </si>
+  <si>
+    <t>Verify protected pages are not accessible after logout</t>
+  </si>
+  <si>
+    <t>User should be redirected to login page and denied access to account</t>
+  </si>
+  <si>
+    <t>Verify session is destroyed after logout</t>
+  </si>
+  <si>
+    <t>Session data should be cleared after logout</t>
+  </si>
+  <si>
+    <t>Verify browser back does not show protected pages after logout</t>
+  </si>
+  <si>
+    <t>User should not be able to access previous account pages</t>
+  </si>
+  <si>
+    <t>Verify logout behavior across multiple browsers</t>
+  </si>
+  <si>
+    <t>User is logged into two browsers</t>
+  </si>
+  <si>
+    <t>If session is globally tracked, user should be logged out from Browser B too</t>
+  </si>
+  <si>
+    <t>Verify "Logout" option is not visible when not logged in</t>
+  </si>
+  <si>
+    <t>"Logout" option should not be visible in dropdown</t>
+  </si>
+  <si>
+    <t>TC_FP_001</t>
+  </si>
+  <si>
+    <t>User is on Login page</t>
+  </si>
+  <si>
+    <t>Forgot Password page should load</t>
+  </si>
+  <si>
+    <t>TC_FP_002</t>
+  </si>
+  <si>
+    <t>validuser@mail.com</t>
+  </si>
+  <si>
+    <t>User is on Forgot Password page</t>
+  </si>
+  <si>
+    <t>TC_FP_003</t>
+  </si>
+  <si>
+    <t>fakeuser@mail.com</t>
+  </si>
+  <si>
+    <t>TC_FP_004</t>
+  </si>
+  <si>
+    <t>TC_FP_005</t>
+  </si>
+  <si>
+    <t>Placeholder text should be shown</t>
+  </si>
+  <si>
+    <t>TC_FP_006</t>
+  </si>
+  <si>
+    <t>Mandatory field warning appears</t>
+  </si>
+  <si>
+    <t>TC_FP_007</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>Email format validation message shown</t>
+  </si>
+  <si>
+    <t>TC_FP_008</t>
+  </si>
+  <si>
+    <t>User should be redirected to Login page</t>
+  </si>
+  <si>
+    <t>TC_FP_009</t>
+  </si>
+  <si>
+    <t>User is on any page with Right Column</t>
+  </si>
+  <si>
+    <t>Forgot Password page should open</t>
+  </si>
+  <si>
+    <t>TC_FP_010</t>
+  </si>
+  <si>
+    <t>1. Check page breadcrumb navigation</t>
+  </si>
+  <si>
+    <t>Breadcrumb should be visible: Home &gt; Account &gt; Forgot Password</t>
+  </si>
+  <si>
+    <t>TC_FP_011</t>
+  </si>
+  <si>
+    <t>TC_FP_012</t>
+  </si>
+  <si>
+    <t>TC_FP_013</t>
+  </si>
+  <si>
+    <t>User submits valid email</t>
+  </si>
+  <si>
+    <t>TC_FP_014</t>
+  </si>
+  <si>
+    <t>User opens Reset Password page from email</t>
+  </si>
+  <si>
+    <t>UI elements should be aligned and labeled correctly</t>
+  </si>
+  <si>
+    <t>TC_FP_015</t>
+  </si>
+  <si>
+    <t>TS_003
+Logout Functionality</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header 
+3. Click on "Login" from the dropdown 
+4. Enter valid Email and Password 
+5. Click on "Login" button 
+6. Click on "My Account" dropdown</t>
+  </si>
+  <si>
+    <t>Verify that clicking "Logout" option Logout the user successfully</t>
+  </si>
+  <si>
+    <t>1. Click on "My Account" dropdown 
+2. Click on "Logout" option 
+3. Observe the page content</t>
+  </si>
+  <si>
+    <t>1. Open browser
+2. Enter URL: https://demo.opencart.com/index.php?route=account/account 
+3. Press Enter</t>
+  </si>
+  <si>
+    <t>1. Open browser Developer Tools 
+2. Go to Application &gt; Session Storage 
+3. Observe session details</t>
+  </si>
+  <si>
+    <t>1. Click on "My Account" dropdown in Header 
+2. Click on "Login" from the dropdown 
+3. Login successfully 
+4. Logout from account 
+5. Press browser back button</t>
+  </si>
+  <si>
+    <t>1. Login in Browser A with valid credentials 
+2. Login in Browser B with same credentials 
+3. Logout from Browser A 
+4. Refresh account page in Browser B</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header</t>
+  </si>
+  <si>
+    <t>Verify UI of Logout option and Account Logout page</t>
+  </si>
+  <si>
+    <t>1. Navigate to the homepage
+2. Hover over “My Account” in the top menu
+3. Click on “Logout” option
+4. Observe the UI of the 'Account Logout' page</t>
+  </si>
+  <si>
+    <t>“Logout” option should be properly aligned and visible
+‘Account Logout’ page should display heading, breadcrumb, and message clearly with consistent layout</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header
+3. Select “Login”
+4. Click “Forgotten Password”</t>
+  </si>
+  <si>
+    <t>Verify user can navigate to Forgot Password page</t>
+  </si>
+  <si>
+    <t>Verify password reset with valid email</t>
+  </si>
+  <si>
+    <t>Verify error with unregistered email</t>
+  </si>
+  <si>
+    <t>Verify empty email field submission</t>
+  </si>
+  <si>
+    <t>Verify placeholder in Email field</t>
+  </si>
+  <si>
+    <t>Verify field is marked mandatory</t>
+  </si>
+  <si>
+    <t>Verify invalid email format input</t>
+  </si>
+  <si>
+    <t>Verify Back button on Forgot Password page</t>
+  </si>
+  <si>
+    <t>Verify navigating from Right Column</t>
+  </si>
+  <si>
+    <t>Verify breadcrumb of the Forgot Password page</t>
+  </si>
+  <si>
+    <t>Verify email with reset instructions is received</t>
+  </si>
+  <si>
+    <t>Verify email reset page UI elements</t>
+  </si>
+  <si>
+    <t>Error: "E-Mail Address was not found in our recods"</t>
+  </si>
+  <si>
+    <t>1. Leave email blank
+2. Click “Continue”</t>
+  </si>
+  <si>
+    <t>1. Leave email blank
+2. Try to submit</t>
+  </si>
+  <si>
+    <t>1. Enter invalid email
+2. Click “Continue”</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header
+3. Select “Login”
+4. Click “Forgotten Password”
+5. Click “Back” button</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header
+3. Select “Login”
+4. Click “Forgotten Password”
+5. Observe email field</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header
+3. Select “Login”
+4.  Click “Forgotten Password” in Right coloumn under My Account</t>
+  </si>
+  <si>
+    <t>Verify reset link cannot be reused after password reset</t>
+  </si>
+  <si>
+    <t>Registered Email: validuser@mail.com</t>
+  </si>
+  <si>
+    <t>Reset password link must be received in email</t>
+  </si>
+  <si>
+    <t>1. Click “Forgotten Password” on Login page
+2. Enter registered email
+3. Click “Continue” to request reset link
+4. Open email and click the reset link
+5. Set new password and confirm it
+6. Submit to complete reset
+7. Click the same reset link again from email</t>
+  </si>
+  <si>
+    <t>System should display "Invalid or expired link" message or redirect to error page</t>
+  </si>
+  <si>
+    <t>1. Navigate to Login page
+2. Click on “Forgotten Password”
+3. Enter registered email: validuser@mail.com
+4. Click “Continue”
+5. Open the email inbox of validuser@mail.com</t>
+  </si>
+  <si>
+    <t>User should receive an email with a reset link and instructions</t>
+  </si>
+  <si>
+    <t>1. Check for labels on "Password" and "Confirm Password" fields
+2. Check for input placeholders
+3. Verify alignment and headings</t>
+  </si>
+  <si>
+    <t>password fields toggle visibility on Reset Password page</t>
+  </si>
+  <si>
+    <t>User must receive a reset password link via email</t>
+  </si>
+  <si>
+    <t>1. Click on the reset password link from email
+2. On the “Reset your Password” page, enter text in the “Password” and “Confirm Password” fields
+3. Observe how the input is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters entered in the “Password” and “Confirm Password” fields should appear hidden as ● </t>
+  </si>
+  <si>
+    <t>Validate resetting password without entering values in 'Password' and 'Confirm' fields</t>
+  </si>
+  <si>
+    <t>User must have received a password reset link via email</t>
+  </si>
+  <si>
+    <t>1. Open the password reset email
+2. Click the reset link
+3. On the "Reset your Password" page, leave both fields (Password and Confirm Password) blank
+4. Click the "Continue" button</t>
+  </si>
+  <si>
+    <t>Field-level warning should appear: "Password must be between 4 and 20 characters!" for the Password field</t>
+  </si>
+  <si>
+    <t>A confirmation message should appear stating that reset instructions have been sent to the registered email</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header
+3. Select “Login”
+4. Click “Forgotten Password”
+5. Enter unregistered email
+6. Click “Continue”</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage 
+2. Click on "My Account" dropdown in Header
+3. Select “Login”
+4. Click “Forgotten Password”
+5. Enter a valid registered email address
+6. Click the “Continue” button</t>
+  </si>
+  <si>
+    <t>TS_004
+Forgot Password</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1486,12 +1923,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1559,6 +2005,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1601,32 +2077,10 @@
     <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1650,8 +2104,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1872,7 +2357,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1887,77 +2372,79 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="37">
         <v>45777</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="37"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="24"/>
+      <c r="B7" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -1990,7 +2477,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2007,7 +2494,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2024,7 +2511,7 @@
         <v>27</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2204,7 +2691,7 @@
       <c r="B25" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="16" t="s">
@@ -2221,7 +2708,7 @@
       <c r="B26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D26" s="18" t="s">
@@ -2494,11 +2981,10 @@
       <c r="E42" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -2519,7 +3005,7 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2542,10 +3028,10 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -2575,10 +3061,10 @@
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -2608,10 +3094,10 @@
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -2641,10 +3127,10 @@
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -2674,10 +3160,10 @@
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="45">
         <v>45781</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -2707,10 +3193,10 @@
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="29"/>
+      <c r="B6" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="39"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2737,9 +3223,9 @@
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2766,9 +3252,9 @@
       <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="22" customFormat="1" ht="12.75">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2795,17 +3281,17 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" s="22" customFormat="1" ht="12.75">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -2860,10 +3346,10 @@
     </row>
     <row r="11" spans="1:27" ht="38.25">
       <c r="A11" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>89</v>
@@ -2872,13 +3358,13 @@
         <v>90</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>91</v>
@@ -2909,22 +3395,22 @@
     </row>
     <row r="12" spans="1:27" ht="63.75">
       <c r="A12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>172</v>
+        <v>346</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>92</v>
@@ -2958,10 +3444,10 @@
     </row>
     <row r="13" spans="1:27" ht="114.75">
       <c r="A13" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>93</v>
@@ -2973,10 +3459,10 @@
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>91</v>
@@ -3007,25 +3493,25 @@
     </row>
     <row r="14" spans="1:27" ht="76.5">
       <c r="A14" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -3050,25 +3536,25 @@
     </row>
     <row r="15" spans="1:27" ht="63.75">
       <c r="A15" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>175</v>
+      <c r="D15" s="28" t="s">
+        <v>341</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>91</v>
@@ -3099,22 +3585,22 @@
     </row>
     <row r="16" spans="1:27" ht="63.75">
       <c r="A16" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>97</v>
@@ -3148,22 +3634,22 @@
     </row>
     <row r="17" spans="1:27" ht="63.75">
       <c r="A17" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>98</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>99</v>
@@ -3197,25 +3683,25 @@
     </row>
     <row r="18" spans="1:27" ht="63.75">
       <c r="A18" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>91</v>
@@ -3246,25 +3732,25 @@
     </row>
     <row r="19" spans="1:27" ht="63.75">
       <c r="A19" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>91</v>
@@ -3295,10 +3781,10 @@
     </row>
     <row r="20" spans="1:27" ht="63.75">
       <c r="A20" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>101</v>
@@ -3310,7 +3796,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>103</v>
@@ -3344,13 +3830,13 @@
     </row>
     <row r="21" spans="1:27" ht="127.5">
       <c r="A21" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>90</v>
@@ -3359,10 +3845,10 @@
         <v>90</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -3387,10 +3873,10 @@
     </row>
     <row r="22" spans="1:27" ht="63.75">
       <c r="A22" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>104</v>
@@ -3402,7 +3888,7 @@
         <v>90</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>106</v>
@@ -3436,10 +3922,10 @@
     </row>
     <row r="23" spans="1:27" ht="38.25">
       <c r="A23" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>107</v>
@@ -3451,7 +3937,7 @@
         <v>90</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>108</v>
@@ -3485,10 +3971,10 @@
     </row>
     <row r="24" spans="1:27" ht="63.75">
       <c r="A24" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>109</v>
@@ -3500,7 +3986,7 @@
         <v>90</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>111</v>
@@ -3534,22 +4020,22 @@
     </row>
     <row r="25" spans="1:27" ht="63.75">
       <c r="A25" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>113</v>
@@ -3583,25 +4069,25 @@
     </row>
     <row r="26" spans="1:27" ht="63.75">
       <c r="A26" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>114</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>91</v>
@@ -3632,25 +4118,25 @@
     </row>
     <row r="27" spans="1:27" ht="63.75">
       <c r="A27" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>91</v>
@@ -3681,25 +4167,25 @@
     </row>
     <row r="28" spans="1:27" ht="89.25">
       <c r="A28" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>91</v>
@@ -3730,13 +4216,13 @@
     </row>
     <row r="29" spans="1:27" ht="102">
       <c r="A29" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>90</v>
@@ -3745,10 +4231,10 @@
         <v>90</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>91</v>
@@ -3779,25 +4265,25 @@
     </row>
     <row r="30" spans="1:27" ht="89.25">
       <c r="A30" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>240</v>
+        <v>137</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -3822,25 +4308,25 @@
     </row>
     <row r="31" spans="1:27" ht="102">
       <c r="A31" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -3865,25 +4351,25 @@
     </row>
     <row r="32" spans="1:27" ht="102">
       <c r="A32" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -3908,13 +4394,13 @@
     </row>
     <row r="33" spans="1:27" ht="63.75">
       <c r="A33" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>90</v>
@@ -3923,10 +4409,10 @@
         <v>90</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>91</v>
@@ -3957,25 +4443,25 @@
     </row>
     <row r="34" spans="1:27" ht="38.25">
       <c r="A34" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>91</v>
@@ -4006,25 +4492,25 @@
     </row>
     <row r="35" spans="1:27" ht="127.5">
       <c r="A35" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>91</v>
@@ -4055,25 +4541,25 @@
     </row>
     <row r="36" spans="1:27" ht="114.75">
       <c r="A36" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>91</v>
@@ -4104,25 +4590,25 @@
     </row>
     <row r="37" spans="1:27" ht="51">
       <c r="A37" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
@@ -4147,25 +4633,25 @@
     </row>
     <row r="38" spans="1:27" ht="63.75">
       <c r="A38" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>91</v>
@@ -4196,25 +4682,25 @@
     </row>
     <row r="39" spans="1:27" ht="51">
       <c r="A39" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>91</v>
@@ -4245,25 +4731,25 @@
     </row>
     <row r="40" spans="1:27" ht="76.5">
       <c r="A40" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>91</v>
@@ -4294,25 +4780,25 @@
     </row>
     <row r="41" spans="1:27" ht="38.25">
       <c r="A41" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>91</v>
@@ -32347,8 +32833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -32371,10 +32857,10 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="48"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -32404,10 +32890,10 @@
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -32437,10 +32923,10 @@
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -32470,10 +32956,10 @@
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -32503,10 +32989,10 @@
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="52">
         <v>45781</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -32536,10 +33022,10 @@
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="53"/>
+      <c r="B6" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="55"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -32566,9 +33052,9 @@
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -32595,9 +33081,9 @@
       <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="22" customFormat="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -32624,17 +33110,17 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" s="22" customFormat="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -32652,73 +33138,73 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
     </row>
-    <row r="10" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:27" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="51">
-      <c r="A11" s="39" t="s">
-        <v>247</v>
+      <c r="A11" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="24" t="s">
         <v>90</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="H11" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="39"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -32737,37 +33223,37 @@
       <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="76.5">
-      <c r="A12" s="39" t="s">
-        <v>246</v>
+      <c r="A12" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>90</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="39" t="s">
+      <c r="I12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="39"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -32786,60 +33272,60 @@
       <c r="AA12" s="12"/>
     </row>
     <row r="13" spans="1:27" ht="76.5">
-      <c r="A13" s="39" t="s">
-        <v>248</v>
+      <c r="A13" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="76.5">
-      <c r="A14" s="39" t="s">
-        <v>249</v>
+      <c r="A14" s="24" t="s">
+        <v>243</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="76.5">
+      <c r="A15" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="76.5">
-      <c r="A15" s="39" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>90</v>
@@ -32848,79 +33334,79 @@
         <v>90</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="89.25">
-      <c r="A16" s="39" t="s">
-        <v>251</v>
+      <c r="A16" s="24" t="s">
+        <v>245</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="89.25">
-      <c r="A17" s="39" t="s">
-        <v>271</v>
+      <c r="A17" s="24" t="s">
+        <v>265</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="76.5">
-      <c r="A18" s="39" t="s">
-        <v>272</v>
+      <c r="A18" s="24" t="s">
+        <v>266</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>292</v>
+        <v>286</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>250</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>91</v>
@@ -32936,26 +33422,26 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="63.75">
-      <c r="A19" s="39" t="s">
-        <v>273</v>
+      <c r="A19" s="24" t="s">
+        <v>267</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>91</v>
@@ -32971,26 +33457,26 @@
       </c>
     </row>
     <row r="20" spans="1:27" ht="89.25">
-      <c r="A20" s="39" t="s">
-        <v>274</v>
+      <c r="A20" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>91</v>
@@ -33006,26 +33492,26 @@
       </c>
     </row>
     <row r="21" spans="1:27" ht="63.75">
-      <c r="A21" s="39" t="s">
-        <v>275</v>
+      <c r="A21" s="24" t="s">
+        <v>269</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>91</v>
@@ -33041,26 +33527,26 @@
       </c>
     </row>
     <row r="22" spans="1:27" ht="63.75">
-      <c r="A22" s="39" t="s">
-        <v>276</v>
+      <c r="A22" s="24" t="s">
+        <v>270</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>91</v>
@@ -33076,14 +33562,14 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="127.5">
-      <c r="A23" s="39" t="s">
-        <v>277</v>
+      <c r="A23" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>344</v>
+        <v>239</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>329</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>90</v>
@@ -33092,10 +33578,10 @@
         <v>90</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>91</v>
@@ -33111,26 +33597,26 @@
       </c>
     </row>
     <row r="24" spans="1:27" ht="102">
-      <c r="A24" s="39" t="s">
-        <v>278</v>
+      <c r="A24" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>91</v>
@@ -33145,62 +33631,62 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="76.5">
-      <c r="A25" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="H25" s="9" t="s">
+    <row r="25" spans="1:27" s="22" customFormat="1" ht="89.25">
+      <c r="A25" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="30" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="89.25">
-      <c r="A26" s="39" t="s">
-        <v>280</v>
+      <c r="A26" s="24" t="s">
+        <v>274</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>91</v>
@@ -33217,25 +33703,25 @@
     </row>
     <row r="27" spans="1:27" ht="127.5">
       <c r="A27" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>341</v>
+        <v>239</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>326</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>91</v>
@@ -33251,26 +33737,26 @@
       </c>
     </row>
     <row r="28" spans="1:27" ht="63.75">
-      <c r="A28" s="39" t="s">
-        <v>282</v>
+      <c r="A28" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>91</v>
@@ -33286,26 +33772,26 @@
       </c>
     </row>
     <row r="29" spans="1:27" ht="102">
-      <c r="A29" s="39" t="s">
-        <v>283</v>
+      <c r="A29" s="24" t="s">
+        <v>277</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>91</v>
@@ -33322,25 +33808,25 @@
     </row>
     <row r="30" spans="1:27" ht="114.75">
       <c r="A30" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
@@ -33354,26 +33840,26 @@
       </c>
     </row>
     <row r="31" spans="1:27" ht="51">
-      <c r="A31" s="39" t="s">
-        <v>285</v>
+      <c r="A31" s="24" t="s">
+        <v>279</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
@@ -33396,27 +33882,27 @@
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
     </row>
-    <row r="32" spans="1:27" ht="63.75">
+    <row r="32" spans="1:27" ht="140.25">
       <c r="A32" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>91</v>
@@ -33432,26 +33918,26 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="25.5">
-      <c r="A33" s="39" t="s">
-        <v>287</v>
+      <c r="A33" s="24" t="s">
+        <v>281</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>91</v>
@@ -33466,19 +33952,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="25.5">
-      <c r="A34" s="39" t="s">
-        <v>288</v>
+    <row r="34" spans="1:11" ht="165.75">
+      <c r="A34" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>239</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G34" s="9" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>91</v>
@@ -33511,24 +34005,1197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="56" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="14" style="31" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="31" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:14" ht="15">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="50"/>
+    </row>
+    <row r="3" spans="1:14" ht="30">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:14" ht="15">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="52">
+        <v>45781</v>
+      </c>
+      <c r="C5" s="53"/>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+    </row>
+    <row r="10" spans="1:14" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="76.5">
+      <c r="A11" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="25.5">
+      <c r="A12" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="38.25">
+      <c r="A13" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="25.5">
+      <c r="A14" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="63.75">
+      <c r="A15" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="38.25">
+      <c r="A16" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="63.75">
+      <c r="A17" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63.75">
+      <c r="A18" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="51">
+      <c r="A19" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.5">
+      <c r="A20" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="59"/>
+      <c r="D21" s="59"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="59"/>
+      <c r="D22" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="50"/>
+    </row>
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:12" ht="15">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="50"/>
+    </row>
+    <row r="5" spans="1:12" ht="15">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="52">
+        <v>45781</v>
+      </c>
+      <c r="C5" s="53"/>
+    </row>
+    <row r="6" spans="1:12" ht="15">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="51">
+      <c r="A11" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="76.5">
+      <c r="A12" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="76.5">
+      <c r="A13" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="25.5">
+      <c r="A14" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="63.75">
+      <c r="A15" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="25.5">
+      <c r="A16" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="23" customFormat="1" ht="25.5">
+      <c r="A17" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>440</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="63.75">
+      <c r="A18" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="63.75">
+      <c r="A19" s="56" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="25.5">
+      <c r="A20" s="56" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="23" customFormat="1" ht="63.75">
+      <c r="A21" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" t="s">
+        <v>456</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="89.25">
+      <c r="A22" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="63.75">
+      <c r="A23" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="51">
+      <c r="A24" s="56" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>410</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="51">
+      <c r="A25" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="23" customFormat="1">
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+    </row>
+    <row r="27" spans="1:11" s="23" customFormat="1">
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Test_Cases/Test Cases.xlsx
+++ b/Test_Cases/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="840"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="Logout" sheetId="4" r:id="rId4"/>
     <sheet name="Forgot Password" sheetId="5" r:id="rId5"/>
     <sheet name="Search" sheetId="6" r:id="rId6"/>
+    <sheet name="Home Page" sheetId="7" r:id="rId7"/>
+    <sheet name="Product Display Page" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="867">
   <si>
     <t>Project Name</t>
   </si>
@@ -1763,16 +1766,1335 @@
     <t>TS_004
 Forgot Password</t>
   </si>
+  <si>
+    <t>User on homepage</t>
+  </si>
+  <si>
+    <t>MacBook products should be listed in results</t>
+  </si>
+  <si>
+    <t>Search partial product name</t>
+  </si>
+  <si>
+    <t>Products with "Mac" in the name should appear</t>
+  </si>
+  <si>
+    <t>Search invalid product name</t>
+  </si>
+  <si>
+    <t>No results should be displayed with a message like “No products found”</t>
+  </si>
+  <si>
+    <t>Search using special characters</t>
+  </si>
+  <si>
+    <t>"@#!$"</t>
+  </si>
+  <si>
+    <t>Proper error message or “No products found”</t>
+  </si>
+  <si>
+    <t>Search with blank input</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Redirect to search page or show “no search keyword” message</t>
+  </si>
+  <si>
+    <t>Enable Advanced Search</t>
+  </si>
+  <si>
+    <t>Case sensitivity check</t>
+  </si>
+  <si>
+    <t>Product “MacBook” should still appear (case-insensitive search)</t>
+  </si>
+  <si>
+    <t>Search with leading/trailing spaces</t>
+  </si>
+  <si>
+    <t>Search should trim spaces and return “MacBook”</t>
+  </si>
+  <si>
+    <t>Search with category filter (Advanced Search)</t>
+  </si>
+  <si>
+    <t>Category: Desktops Keyword: iPhone</t>
+  </si>
+  <si>
+    <t>iPhone should not appear since it's not in "Desktops" category</t>
+  </si>
+  <si>
+    <t>Search using product tag (if supported)</t>
+  </si>
+  <si>
+    <t>Go to product with tags</t>
+  </si>
+  <si>
+    <t>Laptop (Tag)</t>
+  </si>
+  <si>
+    <t>All products with the tag “Laptop” should appear</t>
+  </si>
+  <si>
+    <t>Advanced Search with keyword + description enabled</t>
+  </si>
+  <si>
+    <t>1. Enable “Search in product descriptions” 2. Search “Intel”</t>
+  </si>
+  <si>
+    <t>Intel (in desc)</t>
+  </si>
+  <si>
+    <t>Products with “Intel” in their description should appear</t>
+  </si>
+  <si>
+    <t>Search while logged in</t>
+  </si>
+  <si>
+    <t>Login as test user</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>Same results as guest (no difference in search)</t>
+  </si>
+  <si>
+    <t>Verify search result page loads within acceptable time limit</t>
+  </si>
+  <si>
+    <t>Search for “MacBook” and record time to result</t>
+  </si>
+  <si>
+    <t>Results should load within 2 seconds (or acceptable SLA)</t>
+  </si>
+  <si>
+    <t>Pagination on search results</t>
+  </si>
+  <si>
+    <t>Search for generic term</t>
+  </si>
+  <si>
+    <t>Click on product from search result</t>
+  </si>
+  <si>
+    <t>Search for any product</t>
+  </si>
+  <si>
+    <t>User should be redirected to product detail page</t>
+  </si>
+  <si>
+    <t>TS_005
+Search Functionality</t>
+  </si>
+  <si>
+    <t>1. Enter “MacBook” in search box 
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>1. Enter “Mac” in search box 
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>Enter “xyz123” in search box 
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>Enter “@#!$” in search box 
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>1. Leave the search box empty
+in search box 
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>xyz123</t>
+  </si>
+  <si>
+    <t>Search valid product name or with an existing Product Name</t>
+  </si>
+  <si>
+    <t>1. Enter generic term like “a” in the search box.
+2. Click Search.</t>
+  </si>
+  <si>
+    <t>Pagination controls should appear (e.g., Page 1, 2, Next) if result count exceeds default page limit.</t>
+  </si>
+  <si>
+    <t>Verify sorting options in search results</t>
+  </si>
+  <si>
+    <t>Multiple products matching search term</t>
+  </si>
+  <si>
+    <t>1. Enter "Mac" in the search box.
+2. Click Search.
+3. From Sort By dropdown, select various options (e.g., Name, Price, Rating, Model).</t>
+  </si>
+  <si>
+    <t>Products should reorder correctly based on the selected sorting option.</t>
+  </si>
+  <si>
+    <t>Verify display limit control in search results</t>
+  </si>
+  <si>
+    <t>Multiple products available</t>
+  </si>
+  <si>
+    <t>1. Enter "Macbook" in the search box.
+2. Click Search.
+3. Change result limit using the Show dropdown (e.g., 10, 25).</t>
+  </si>
+  <si>
+    <t>Number of displayed products should change according to selected limit.</t>
+  </si>
+  <si>
+    <t>Verify Grid &amp; List views for single and multiple search results</t>
+  </si>
+  <si>
+    <t>Products with search terms “iMac” (single) and “Mac” (multiple)</t>
+  </si>
+  <si>
+    <t>1. Search for iMac.
+2. Toggle between List and Grid view.
+3. Click product image and name.
+4. Repeat with Mac.
+5. Toggle views.
+6. Click image/name to test product navigation.</t>
+  </si>
+  <si>
+    <t>1. iMac: Single product is shown in both views with functional buttons (Add to Cart, Wishlist, Compare).
+2. Mac: Multiple products appear and behave similarly in both views.
+3. Clicking images/names navigates to product detail pages.</t>
+  </si>
+  <si>
+    <t>Search Term: "a"</t>
+  </si>
+  <si>
+    <t>iMac, Mac</t>
+  </si>
+  <si>
+    <t>Macbook</t>
+  </si>
+  <si>
+    <t>1. Search “MacBook” 
+2. Click on a product link</t>
+  </si>
+  <si>
+    <t>macbook</t>
+  </si>
+  <si>
+    <t>" MacBook"</t>
+  </si>
+  <si>
+    <t>1. Select “Desktops” in category 
+2. Search “iPhone”</t>
+  </si>
+  <si>
+    <t>1. Enter “macbook” in lowercase
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>1.Enter “ MacBook ” with spaces
+2. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>1. Click on a product tag like “Laptop”</t>
+  </si>
+  <si>
+    <t>1. Log in to account
+2. then enter “MacBook” in search box
+3. Click search icon or press enter</t>
+  </si>
+  <si>
+    <t>TC_HP_001</t>
+  </si>
+  <si>
+    <t>Verify the Home Page layout and key components</t>
+  </si>
+  <si>
+    <t>User is on Home Page</t>
+  </si>
+  <si>
+    <t>All key UI elements should be present and properly aligned</t>
+  </si>
+  <si>
+    <t>TC_HP_002</t>
+  </si>
+  <si>
+    <t>Validate navigating to Home Page from 'Shopping Cart' page</t>
+  </si>
+  <si>
+    <t>Product Name: iMac</t>
+  </si>
+  <si>
+    <t>User is on Shopping Cart page after adding a product</t>
+  </si>
+  <si>
+    <t>User should be taken to Home Page</t>
+  </si>
+  <si>
+    <t>TC_HP_003</t>
+  </si>
+  <si>
+    <t>Validate navigating to Home Page from 'Order Success' page</t>
+  </si>
+  <si>
+    <t>User has placed an order and is on the Success page</t>
+  </si>
+  <si>
+    <t>TC_HP_004</t>
+  </si>
+  <si>
+    <t>Validate navigating to Home Page using site Logo</t>
+  </si>
+  <si>
+    <t>User is on any internal page of the application</t>
+  </si>
+  <si>
+    <t>1. Click on “Your Store” logo in the header</t>
+  </si>
+  <si>
+    <t>TC_HP_005</t>
+  </si>
+  <si>
+    <t>Validate navigating to Home Page from an empty category page</t>
+  </si>
+  <si>
+    <t>User is on “PC (0)” category page</t>
+  </si>
+  <si>
+    <t>TC_HP_006</t>
+  </si>
+  <si>
+    <t>Validate Hero Images and slider functionality</t>
+  </si>
+  <si>
+    <t>TC_HP_007</t>
+  </si>
+  <si>
+    <t>Validate four Featured Products are displayed</t>
+  </si>
+  <si>
+    <t>TC_HP_008</t>
+  </si>
+  <si>
+    <t>Validate Partner Carousel section and slider options</t>
+  </si>
+  <si>
+    <t>TC_HP_009</t>
+  </si>
+  <si>
+    <t>Validate navigating to Home Page using Breadcrumb 'Home' icon</t>
+  </si>
+  <si>
+    <t>User is on any internal page with breadcrumb</t>
+  </si>
+  <si>
+    <t>1. Click on “Home” icon from breadcrumb</t>
+  </si>
+  <si>
+    <t>TC_HP_010</t>
+  </si>
+  <si>
+    <t>Validate UI of Home Page layout and elements</t>
+  </si>
+  <si>
+    <t>Home Page should follow UI checklist and have consistent, user-friendly design</t>
+  </si>
+  <si>
+    <t>TC_HP_011</t>
+  </si>
+  <si>
+    <t>Validate Home Page functionality in supported environments</t>
+  </si>
+  <si>
+    <t>Application is opened in multiple browsers and devices</t>
+  </si>
+  <si>
+    <t>Home Page should render and function correctly across all supported browsers and devices</t>
+  </si>
+  <si>
+    <t>TC_HP_012</t>
+  </si>
+  <si>
+    <t>Verify each Hero Image in slider is clickable and navigates to correct page</t>
+  </si>
+  <si>
+    <t>Each clickable image should navigate to the correct product/category/promo page. Non-clickable ones should not have any cursor pointer or click behavior</t>
+  </si>
+  <si>
+    <t>1. Observe the Hero Image slider
+2. Click on each image one-by-one
+3. Verify if the image is clickable
+4. Check redirection on click</t>
+  </si>
+  <si>
+    <t>1. Open Home Page on Chrome, Firefox, Safari, Edge, mobile view
+2. Check page load, layout, interactivity</t>
+  </si>
+  <si>
+    <t>1. Verify design consistency
+2. Confirm proper spacing, fonts, colors, and responsiveness</t>
+  </si>
+  <si>
+    <t>1. Logos displayed
+2. Auto-slide works
+3. Arrows work
+4. Pagination works
+5. Drag-to-slide works</t>
+  </si>
+  <si>
+    <t>1. Observe Partner Carousel
+2. Check auto sliding
+3. Use &lt; and &gt; arrows
+4. Click pagination bullets
+5. Drag logos using mouse</t>
+  </si>
+  <si>
+    <t>1. Scroll to Featured section
+2. Check if 4 products are shown
+3. Verify links and buttons on each product</t>
+  </si>
+  <si>
+    <t>1. Four featured products displayed
+2. All buttons and links work (Add to Cart, Wish List, Compare, Product page)</t>
+  </si>
+  <si>
+    <t>1. Enter any existing product name into the Search box
+2. Click on search icon
+3. Click “Add to Cart”
+4. Click “shopping cart!” in success message
+5. Click “Continue Shopping”</t>
+  </si>
+  <si>
+    <t>1. Navigate to Homepage
+2. Verify presence of: Header, Search Bar, Slideshow, Featured Section, Partner Carousel, Footer</t>
+  </si>
+  <si>
+    <t>1. Complete an order
+2. Click on “Continue” on Success page</t>
+  </si>
+  <si>
+    <t>1. Hover on “Desktops”
+2. Click “PC (0)”
+3. Click “Continue” on the empty category page</t>
+  </si>
+  <si>
+    <t>1. Observe Hero Images
+2. Check auto sliding
+3. Use &lt; and &gt; arrows
+4. Click slider bullets
+5. Click and drag slider with mouse</t>
+  </si>
+  <si>
+    <t>1. Correct images displayed2. Auto-slide works
+3. Manual slide works via arrows
+4. Bullets work
+5. Drag-to-slide works</t>
+  </si>
+  <si>
+    <t>TS_006
+Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_001
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_002
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_003
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_004
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_005
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_006
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_007
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_008
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_009
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_010
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_011
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_013
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_014
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_015
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_016
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_017
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TC_SF_018
+</t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>TC_PDP_01</t>
+  </si>
+  <si>
+    <t>Product Display Page</t>
+  </si>
+  <si>
+    <t>Verify user can open product detail page from homepage</t>
+  </si>
+  <si>
+    <t>1. Go to homepage2. Click any product</t>
+  </si>
+  <si>
+    <t>Product detail page opens with complete product info</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>TC_PDP_02</t>
+  </si>
+  <si>
+    <t>Verify product image is displayed correctly</t>
+  </si>
+  <si>
+    <t>1. Open any product page</t>
+  </si>
+  <si>
+    <t>Product image is visible and sharp</t>
+  </si>
+  <si>
+    <t>TC_PDP_03</t>
+  </si>
+  <si>
+    <t>Verify product image zoom on hover/click</t>
+  </si>
+  <si>
+    <t>1. Hover/click on product image</t>
+  </si>
+  <si>
+    <t>Zoomed version appears</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>TC_PDP_04</t>
+  </si>
+  <si>
+    <t>Verify product image thumbnails change main image</t>
+  </si>
+  <si>
+    <t>1. Click on thumbnails</t>
+  </si>
+  <si>
+    <t>Product with multiple images</t>
+  </si>
+  <si>
+    <t>Main image updates based on thumbnail</t>
+  </si>
+  <si>
+    <t>TC_PDP_05</t>
+  </si>
+  <si>
+    <t>Verify product title is shown</t>
+  </si>
+  <si>
+    <t>1. Open product page</t>
+  </si>
+  <si>
+    <t>Product title is displayed at the top</t>
+  </si>
+  <si>
+    <t>TC_PDP_06</t>
+  </si>
+  <si>
+    <t>Verify product price is shown</t>
+  </si>
+  <si>
+    <t>Correct product price is shown</t>
+  </si>
+  <si>
+    <t>TC_PDP_07</t>
+  </si>
+  <si>
+    <t>Verify product code/SKU is displayed</t>
+  </si>
+  <si>
+    <t>SKU123</t>
+  </si>
+  <si>
+    <t>Product code/SKU is shown</t>
+  </si>
+  <si>
+    <t>TC_PDP_08</t>
+  </si>
+  <si>
+    <t>Verify brand/manufacturer name is visible</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Brand is displayed as a clickable link</t>
+  </si>
+  <si>
+    <t>TC_PDP_09</t>
+  </si>
+  <si>
+    <t>Verify availability (stock status) is displayed</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>Availability is shown correctly</t>
+  </si>
+  <si>
+    <t>TC_PDP_10</t>
+  </si>
+  <si>
+    <t>Verify user can select quantity</t>
+  </si>
+  <si>
+    <t>1. Enter quantity 32. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Quantity 3 is added to cart</t>
+  </si>
+  <si>
+    <t>TC_PDP_11</t>
+  </si>
+  <si>
+    <t>Verify default quantity is 1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Quantity field should default to 1</t>
+  </si>
+  <si>
+    <t>TC_PDP_12</t>
+  </si>
+  <si>
+    <t>Verify adding to cart works properly</t>
+  </si>
+  <si>
+    <t>1. Select quantity2. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Product added to cart with success message</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>TC_PDP_13</t>
+  </si>
+  <si>
+    <t>Verify success message after adding to cart</t>
+  </si>
+  <si>
+    <t>1. Add item to cart</t>
+  </si>
+  <si>
+    <t>"Success: You have added [product]" message is shown</t>
+  </si>
+  <si>
+    <t>TC_PDP_14</t>
+  </si>
+  <si>
+    <t>Verify required options must be selected</t>
+  </si>
+  <si>
+    <t>1. Skip selecting size2. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>T-shirt (with size)</t>
+  </si>
+  <si>
+    <t>Error message shown prompting option selection</t>
+  </si>
+  <si>
+    <t>TC_PDP_15</t>
+  </si>
+  <si>
+    <t>Verify product options (size/color) are selectable</t>
+  </si>
+  <si>
+    <t>1. Select size/color</t>
+  </si>
+  <si>
+    <t>Size: M, Color: Red</t>
+  </si>
+  <si>
+    <t>Options are selected without issue</t>
+  </si>
+  <si>
+    <t>TC_PDP_16</t>
+  </si>
+  <si>
+    <t>Verify disabled Add to Cart if out of stock</t>
+  </si>
+  <si>
+    <t>1. Open out-of-stock product</t>
+  </si>
+  <si>
+    <t>Out of Stock Product</t>
+  </si>
+  <si>
+    <t>Add to Cart button disabled or error shown</t>
+  </si>
+  <si>
+    <t>TC_PDP_17</t>
+  </si>
+  <si>
+    <t>Verify product description is present</t>
+  </si>
+  <si>
+    <t>1. Scroll to description tab</t>
+  </si>
+  <si>
+    <t>Full product description is visible</t>
+  </si>
+  <si>
+    <t>TC_PDP_18</t>
+  </si>
+  <si>
+    <t>Verify product specification tab is displayed</t>
+  </si>
+  <si>
+    <t>1. Click “Specification” tab</t>
+  </si>
+  <si>
+    <t>Any product</t>
+  </si>
+  <si>
+    <t>Product specifications shown in table</t>
+  </si>
+  <si>
+    <t>TC_PDP_19</t>
+  </si>
+  <si>
+    <t>Verify breadcrumb navigation works</t>
+  </si>
+  <si>
+    <t>1. Click breadcrumb links</t>
+  </si>
+  <si>
+    <t>Laptops &gt; MacBook</t>
+  </si>
+  <si>
+    <t>Navigates to correct category</t>
+  </si>
+  <si>
+    <t>TC_PDP_20</t>
+  </si>
+  <si>
+    <t>Verify user can go to brand page by clicking brand</t>
+  </si>
+  <si>
+    <t>1. Click on brand name</t>
+  </si>
+  <si>
+    <t>Navigates to Apple brand page</t>
+  </si>
+  <si>
+    <t>TC_PDP_21</t>
+  </si>
+  <si>
+    <t>Verify Add to Wishlist works for logged-in user</t>
+  </si>
+  <si>
+    <t>1. Login2. Click Add to Wishlist</t>
+  </si>
+  <si>
+    <t>Product added to Wishlist</t>
+  </si>
+  <si>
+    <t>TC_PDP_22</t>
+  </si>
+  <si>
+    <t>Verify Add to Wishlist prompts login if user is guest</t>
+  </si>
+  <si>
+    <t>1. Logout2. Click Add to Wishlist</t>
+  </si>
+  <si>
+    <t>Redirects to login or shows prompt</t>
+  </si>
+  <si>
+    <t>TC_PDP_23</t>
+  </si>
+  <si>
+    <t>Verify Add to Compare works</t>
+  </si>
+  <si>
+    <t>1. Click Add to Compare</t>
+  </si>
+  <si>
+    <t>Product added to compare list</t>
+  </si>
+  <si>
+    <t>TC_PDP_24</t>
+  </si>
+  <si>
+    <t>Verify Compare list has max limit (if any)</t>
+  </si>
+  <si>
+    <t>1. Add multiple items to Compare</t>
+  </si>
+  <si>
+    <t>4+ items</t>
+  </si>
+  <si>
+    <t>System should restrict or handle gracefully</t>
+  </si>
+  <si>
+    <t>TC_PDP_25</t>
+  </si>
+  <si>
+    <t>Verify Social Share icons are present</t>
+  </si>
+  <si>
+    <t>1. Scroll to share icons</t>
+  </si>
+  <si>
+    <t>Icons like Facebook/Twitter shown</t>
+  </si>
+  <si>
+    <t>TC_PDP_26</t>
+  </si>
+  <si>
+    <t>Verify clicking Social Share icon opens correct link</t>
+  </si>
+  <si>
+    <t>1. Click Facebook share icon</t>
+  </si>
+  <si>
+    <t>Facebook share dialog opens</t>
+  </si>
+  <si>
+    <t>TC_PDP_27</t>
+  </si>
+  <si>
+    <t>Verify Related Products section is shown</t>
+  </si>
+  <si>
+    <t>1. Scroll to bottom of product page</t>
+  </si>
+  <si>
+    <t>Product with related items</t>
+  </si>
+  <si>
+    <t>Related items displayed</t>
+  </si>
+  <si>
+    <t>TC_PDP_28</t>
+  </si>
+  <si>
+    <t>Verify Related Products open correct pages</t>
+  </si>
+  <si>
+    <t>1. Click on related product</t>
+  </si>
+  <si>
+    <t>Redirected to related product’s PDP</t>
+  </si>
+  <si>
+    <t>TC_PDP_29</t>
+  </si>
+  <si>
+    <t>Verify clicking on product tags works</t>
+  </si>
+  <si>
+    <t>1. Click on product tag (e.g., “Laptop”)</t>
+  </si>
+  <si>
+    <t>Laptop tag</t>
+  </si>
+  <si>
+    <t>Navigates to list of tagged products</t>
+  </si>
+  <si>
+    <t>TC_PDP_30</t>
+  </si>
+  <si>
+    <t>Verify Continue Shopping button after Add to Cart</t>
+  </si>
+  <si>
+    <t>1. Add item to cart2. Click Continue</t>
+  </si>
+  <si>
+    <t>Returns to previous page or cart</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TS_007
+Product Display Page</t>
+  </si>
+  <si>
+    <t>TC_PDP_001</t>
+  </si>
+  <si>
+    <t>Verify that product image is displayed correctly</t>
+  </si>
+  <si>
+    <t>Valid product with image</t>
+  </si>
+  <si>
+    <t>User is on Product Display Page</t>
+  </si>
+  <si>
+    <t>Product image should be clearly visible and not broken</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>TC_PDP_002</t>
+  </si>
+  <si>
+    <t>TC_PDP_003</t>
+  </si>
+  <si>
+    <t>TC_PDP_004</t>
+  </si>
+  <si>
+    <t>Any valid product</t>
+  </si>
+  <si>
+    <t>1. Observe the product name at the top</t>
+  </si>
+  <si>
+    <t>Product name should match the catalog and be clearly displayed</t>
+  </si>
+  <si>
+    <t>TC_PDP_005</t>
+  </si>
+  <si>
+    <t>Any product with set price</t>
+  </si>
+  <si>
+    <t>1. Observe the price below product name</t>
+  </si>
+  <si>
+    <t>Product price should match admin panel and format correctly</t>
+  </si>
+  <si>
+    <t>TC_PDP_006</t>
+  </si>
+  <si>
+    <t>Check display of discounted price with original price</t>
+  </si>
+  <si>
+    <t>Product with discount price set</t>
+  </si>
+  <si>
+    <t>1. Observe price area for discounted products</t>
+  </si>
+  <si>
+    <t>Discounted price should show with original price struck through</t>
+  </si>
+  <si>
+    <t>TC_PDP_007</t>
+  </si>
+  <si>
+    <t>Product with tax setting enabled</t>
+  </si>
+  <si>
+    <t>Tax info should match system settings</t>
+  </si>
+  <si>
+    <t>TC_PDP_008</t>
+  </si>
+  <si>
+    <t>Product with full description</t>
+  </si>
+  <si>
+    <t>1. Scroll to product description section</t>
+  </si>
+  <si>
+    <t>Full product description should be displayed and formatted</t>
+  </si>
+  <si>
+    <t>TC_PDP_009</t>
+  </si>
+  <si>
+    <t>Product with tabbed info</t>
+  </si>
+  <si>
+    <t>Tabs should switch content without error or delay</t>
+  </si>
+  <si>
+    <t>TC_PDP_010</t>
+  </si>
+  <si>
+    <t>Check if Add to Cart button is functional</t>
+  </si>
+  <si>
+    <t>Product in stock</t>
+  </si>
+  <si>
+    <t>Product should be added to cart and reflected in mini cart</t>
+  </si>
+  <si>
+    <t>TC_PDP_011</t>
+  </si>
+  <si>
+    <t>Product with stock &gt; 0 and stock = 0</t>
+  </si>
+  <si>
+    <t>1. Observe stock status label</t>
+  </si>
+  <si>
+    <t>"In Stock" or "Out of Stock" message should display accordingly</t>
+  </si>
+  <si>
+    <t>TC_PDP_012</t>
+  </si>
+  <si>
+    <t>Invalid quantity should show error; valid should add to cart</t>
+  </si>
+  <si>
+    <t>TC_PDP_013</t>
+  </si>
+  <si>
+    <t>Product with model number</t>
+  </si>
+  <si>
+    <t>1. Observe model or product code field</t>
+  </si>
+  <si>
+    <t>Product code should be visible as per backend data</t>
+  </si>
+  <si>
+    <t>TC_PDP_014</t>
+  </si>
+  <si>
+    <t>Check brand name links to brand page</t>
+  </si>
+  <si>
+    <t>1. Click on the brand/manufacturer name</t>
+  </si>
+  <si>
+    <t>TC_PDP_015</t>
+  </si>
+  <si>
+    <t>Product with reward points enabled</t>
+  </si>
+  <si>
+    <t>Reward point value should be displayed correctly</t>
+  </si>
+  <si>
+    <t>TC_PDP_016</t>
+  </si>
+  <si>
+    <t>TC_PDP_017</t>
+  </si>
+  <si>
+    <t>Access product via category or search</t>
+  </si>
+  <si>
+    <t>1. Observe breadcrumb path at top</t>
+  </si>
+  <si>
+    <t>Breadcrumb should reflect navigation path to product</t>
+  </si>
+  <si>
+    <t>TC_PDP_018</t>
+  </si>
+  <si>
+    <t>Check if dimensions and weight are displayed</t>
+  </si>
+  <si>
+    <t>Product with set weight/dimensions</t>
+  </si>
+  <si>
+    <t>1. Scroll to specifications/details section</t>
+  </si>
+  <si>
+    <t>Weight and size should be visible if configured</t>
+  </si>
+  <si>
+    <t>TC_PDP_019</t>
+  </si>
+  <si>
+    <t>Confirm "Write Review" button is present</t>
+  </si>
+  <si>
+    <t>Product with reviews enabled</t>
+  </si>
+  <si>
+    <t>Button/link should be visible for submitting reviews</t>
+  </si>
+  <si>
+    <t>TC_PDP_020</t>
+  </si>
+  <si>
+    <t>Product with share plugins enabled</t>
+  </si>
+  <si>
+    <t>TC_PDP_021</t>
+  </si>
+  <si>
+    <t>Check if related/similar products show</t>
+  </si>
+  <si>
+    <t>Product with related items set</t>
+  </si>
+  <si>
+    <t>1. Scroll to "Related Products" section</t>
+  </si>
+  <si>
+    <t>Multiple products should be displayed with images and links</t>
+  </si>
+  <si>
+    <t>TC_PDP_022</t>
+  </si>
+  <si>
+    <t>TC_PDP_023</t>
+  </si>
+  <si>
+    <t>Logged-in user</t>
+  </si>
+  <si>
+    <t>1. Click on "Add to Wish List" icon or button</t>
+  </si>
+  <si>
+    <t>Product should be added to wish list with confirmation</t>
+  </si>
+  <si>
+    <t>TC_PDP_024</t>
+  </si>
+  <si>
+    <t>Check compare feature works</t>
+  </si>
+  <si>
+    <t>Product should appear on comparison chart</t>
+  </si>
+  <si>
+    <t>Ensure breadcrumb links work</t>
+  </si>
+  <si>
+    <t>1. Click on each breadcrumb part</t>
+  </si>
+  <si>
+    <t>Each link should navigate to correct category path</t>
+  </si>
+  <si>
+    <t>Ensure no missing images/buttons/scripts</t>
+  </si>
+  <si>
+    <t>No missing/broken images, buttons, or JS errors</t>
+  </si>
+  <si>
+    <t>1. Navigate to any product 
+2. Observe the main product image</t>
+  </si>
+  <si>
+    <t>1. Hover over or click on product image</t>
+  </si>
+  <si>
+    <t>Zoomed-in view of image should be visible &amp; also display other images while slide or swipe</t>
+  </si>
+  <si>
+    <t>Verify zoom on hover/click for main image</t>
+  </si>
+  <si>
+    <t>Verify product name is correctly shown</t>
+  </si>
+  <si>
+    <t>Verify product price is displayed correctly</t>
+  </si>
+  <si>
+    <t>Verify display of tax-inclusive/exclusive prices</t>
+  </si>
+  <si>
+    <t>Verify long and short product description</t>
+  </si>
+  <si>
+    <t>Verify other tabs (e.g., specs, reviews, etc.)</t>
+  </si>
+  <si>
+    <t>Verify message based on quantity in stock</t>
+  </si>
+  <si>
+    <t>Verify quantity input before adding to cart</t>
+  </si>
+  <si>
+    <t>Verify product code is displayed</t>
+  </si>
+  <si>
+    <t>Verify display of reward points info</t>
+  </si>
+  <si>
+    <t>Verify breadcrumbs reflect correct path</t>
+  </si>
+  <si>
+    <t>Verify functionality of wish list</t>
+  </si>
+  <si>
+    <t>1. Observe tax note below the price</t>
+  </si>
+  <si>
+    <t>1. Click on all available tabs 
+2. Observe content loading correctly</t>
+  </si>
+  <si>
+    <t>1. Click Add to Cart button 
+2. Observe cart icon and confirmation</t>
+  </si>
+  <si>
+    <t>1. Try entering valid and invalid (0, -1, 10000) quantities 
+2. Click Add to Cart</t>
+  </si>
+  <si>
+    <t>Product with brand set e.g. " Apple "</t>
+  </si>
+  <si>
+    <t>Should navigate to manufacturer listing page &amp; should display all other products of this brand</t>
+  </si>
+  <si>
+    <t>1. Check reward points section</t>
+  </si>
+  <si>
+    <t>1. Scroll to Reviews tab / click on "Write a review" in Right side of product image
+2. Check for "Write a review" option</t>
+  </si>
+  <si>
+    <t>1. Click on "Compare this Product" 
+2. Visit comparison page</t>
+  </si>
+  <si>
+    <t>1. Scroll through entire PDP 
+2. Observe console for errors</t>
+  </si>
+  <si>
+    <t>1. Enter any existing Product name into the Search text box field
+2. Click on the button having search icon
+3. Click on the Product displayed in the Search results</t>
+  </si>
+  <si>
+    <t>Proper UI adhering to the UI checklist should be displayed for the complete 'Product Display' page functionality</t>
+  </si>
+  <si>
+    <t>User should be taken to the Product Display page of the Product</t>
+  </si>
+  <si>
+    <t>1. Navigate to any product 
+2. Click on 'Add to Cart' button
+3. Click on 'Product Name' link from the displayed success message</t>
+  </si>
+  <si>
+    <t>User must be logged into the application</t>
+  </si>
+  <si>
+    <t>Verify navigating to the Product Display page by using the Product Name link in Success message on adding the Product to Cart</t>
+  </si>
+  <si>
+    <t>Verify the UI of 'Product Display' page</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1826,6 +3148,13 @@
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1935,71 +3264,71 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2008,112 +3337,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2122,21 +3385,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2356,8 +3712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2372,77 +3728,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="34"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="48"/>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="51">
         <v>45777</v>
       </c>
-      <c r="C6" s="37"/>
+      <c r="C6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="48"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
     </row>
@@ -2528,7 +3884,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2545,7 +3901,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2555,14 +3911,14 @@
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="46" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2579,7 +3935,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3004,8 +4360,8 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3028,10 +4384,10 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="43"/>
+      <c r="C1" s="57"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -3061,10 +4417,10 @@
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -3094,10 +4450,10 @@
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -3127,10 +4483,10 @@
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -3160,10 +4516,10 @@
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="59">
         <v>45781</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -3193,10 +4549,10 @@
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -3223,9 +4579,9 @@
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -3252,9 +4608,9 @@
       <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="22" customFormat="1" ht="12.75">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -3281,17 +4637,17 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" s="22" customFormat="1" ht="12.75">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -32857,10 +34213,10 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="64"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -32890,10 +34246,10 @@
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="64"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -32923,10 +34279,10 @@
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -32956,10 +34312,10 @@
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -32989,10 +34345,10 @@
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="66">
         <v>45781</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -33022,10 +34378,10 @@
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -33052,9 +34408,9 @@
       <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -33081,9 +34437,9 @@
       <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="22" customFormat="1">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -33110,17 +34466,17 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" s="22" customFormat="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -33139,10 +34495,10 @@
       <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -33151,7 +34507,7 @@
       <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
@@ -33160,16 +34516,16 @@
       <c r="G10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="35" t="s">
         <v>7</v>
       </c>
     </row>
@@ -34007,16 +35363,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="34" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" style="31" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" style="31" customWidth="1"/>
@@ -34031,81 +35387,81 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:14" ht="30">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="66">
         <v>45781</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="67"/>
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:14" s="15" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
@@ -34143,16 +35499,16 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="76.5">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="38" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -34178,16 +35534,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="25.5">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="38" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="25" t="s">
@@ -34213,16 +35569,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="38.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="25" t="s">
@@ -34248,16 +35604,16 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="25.5">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E14" s="25" t="s">
@@ -34283,16 +35639,16 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="63.75">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="25" t="s">
@@ -34318,16 +35674,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="38.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="25" t="s">
@@ -34353,16 +35709,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="63.75">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -34382,16 +35738,16 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="63.75">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C18" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="25" t="s">
@@ -34417,16 +35773,16 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="51">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="25" t="s">
@@ -34452,16 +35808,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="37" t="s">
         <v>412</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="37" t="s">
         <v>90</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -34487,12 +35843,12 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="B21" s="59"/>
-      <c r="D21" s="59"/>
+      <c r="B21" s="37"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="B22" s="59"/>
-      <c r="D22" s="59"/>
+      <c r="B22" s="37"/>
+      <c r="D22" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -34515,8 +35871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34538,85 +35894,85 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:12" ht="15">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:12" ht="30">
       <c r="A3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:12" ht="15">
       <c r="A4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="64"/>
     </row>
     <row r="5" spans="1:12" ht="15">
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="66">
         <v>45781</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="67"/>
     </row>
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:12" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -34625,7 +35981,7 @@
       <c r="D10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="15" t="s">
@@ -34634,24 +35990,24 @@
       <c r="G10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="51">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -34683,16 +36039,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="23" customFormat="1" ht="76.5">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="36" t="s">
         <v>384</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -34718,16 +36074,16 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1" ht="76.5">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="36" t="s">
         <v>387</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -34753,10 +36109,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="23" customFormat="1" ht="25.5">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="34" t="s">
         <v>388</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -34788,10 +36144,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="23" customFormat="1" ht="63.75">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C15" s="31" t="s">
@@ -34823,10 +36179,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="23" customFormat="1" ht="25.5">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -34858,10 +36214,10 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="23" customFormat="1" ht="25.5">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -34893,10 +36249,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="23" customFormat="1" ht="63.75">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C18" s="31" t="s">
@@ -34928,10 +36284,10 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="23" customFormat="1" ht="63.75">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -34963,10 +36319,10 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1" ht="25.5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -34998,16 +36354,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="23" customFormat="1" ht="63.75">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="34" t="s">
         <v>404</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C21" t="s">
         <v>456</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="36" t="s">
         <v>90</v>
       </c>
       <c r="E21" s="31" t="s">
@@ -35033,10 +36389,10 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="23" customFormat="1" ht="89.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="34" t="s">
         <v>405</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -35068,10 +36424,10 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="23" customFormat="1" ht="63.75">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -35103,10 +36459,10 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="23" customFormat="1" ht="51">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -35138,10 +36494,10 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="23" customFormat="1" ht="51">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="34" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="34" t="s">
         <v>463</v>
       </c>
       <c r="C25" s="31" t="s">
@@ -35173,16 +36529,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="23" customFormat="1">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="1:11" s="23" customFormat="1">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -35202,14 +36558,3204 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24" style="45" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" ht="15">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="64"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="64"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="66">
+        <v>45781</v>
+      </c>
+      <c r="C5" s="67"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="74"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="38.25">
+      <c r="A11" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:12" s="23" customFormat="1" ht="38.25">
+      <c r="A12" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="H12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="38.25">
+      <c r="A13" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>508</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:12" s="23" customFormat="1" ht="38.25">
+      <c r="A14" s="44" t="s">
+        <v>594</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" s="31"/>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="38.25">
+      <c r="A15" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="H15" s="31"/>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1" ht="63.75">
+      <c r="A16" s="44" t="s">
+        <v>596</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>516</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A17" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>477</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>534</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A18" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>532</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>535</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A19" s="44" t="s">
+        <v>599</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>533</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A20" s="44" t="s">
+        <v>600</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>487</v>
+      </c>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A21" s="44" t="s">
+        <v>601</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>489</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>491</v>
+      </c>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A22" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A23" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="H23" s="31"/>
+    </row>
+    <row r="24" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A24" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>527</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" s="23" customFormat="1" ht="38.25">
+      <c r="A25" s="44" t="s">
+        <v>605</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>501</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>502</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>530</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="H25" s="31"/>
+    </row>
+    <row r="26" spans="1:8" s="23" customFormat="1" ht="51">
+      <c r="A26" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>529</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>521</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="23" customFormat="1" ht="89.25">
+      <c r="A27" s="44" t="s">
+        <v>607</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>524</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="23" customFormat="1">
+      <c r="E28" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21" style="23" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="15">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="30">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="64"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="66">
+        <v>45781</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="51">
+      <c r="A12" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>585</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>541</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="89.25">
+      <c r="A13" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="38.25">
+      <c r="A14" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>544</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>549</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>586</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25.5">
+      <c r="A15" s="44" t="s">
+        <v>550</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="51">
+      <c r="A16" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="76.5">
+      <c r="A17" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="76.5">
+      <c r="A18" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>575</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>577</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>576</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="63.75">
+      <c r="A19" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="63.75">
+      <c r="A20" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>580</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="25.5">
+      <c r="A21" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>564</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>565</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>566</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="38.25">
+      <c r="A22" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>540</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>579</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="51">
+      <c r="A23" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>571</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>572</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="59">
+        <v>45781</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:27" s="22" customFormat="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+    </row>
+    <row r="9" spans="1:27" s="22" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+    </row>
+    <row r="10" spans="1:27" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="25.5">
+      <c r="A11" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J11" s="31"/>
+      <c r="K11" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="38.25">
+      <c r="A12" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="25.5">
+      <c r="A13" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="25.5">
+      <c r="A14" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="25.5">
+      <c r="A15" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="25.5">
+      <c r="A16" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="H17" s="31"/>
+      <c r="I17" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25.5">
+      <c r="A18" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="H18" s="31"/>
+      <c r="I18" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="25.5">
+      <c r="A19" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="25.5">
+      <c r="A20" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="H20" s="31"/>
+      <c r="I20" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="38.25">
+      <c r="A21" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J21" s="31"/>
+      <c r="K21" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="25.5">
+      <c r="A22" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J22" s="31"/>
+      <c r="K22" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="38.25">
+      <c r="A23" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="25.5">
+      <c r="A24" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25.5">
+      <c r="A25" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="25.5">
+      <c r="A26" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="38.25">
+      <c r="A27" s="25" t="s">
+        <v>802</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="H27" s="31"/>
+      <c r="I27" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J27" s="31"/>
+      <c r="K27" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="51">
+      <c r="A28" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>865</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J28" s="31"/>
+      <c r="K28" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="25.5">
+      <c r="A29" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J29" s="31"/>
+      <c r="K29" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="63.75">
+      <c r="A30" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>866</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="K30" s="31"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5">
+      <c r="A31" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="H31" s="31"/>
+      <c r="I31" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J31" s="31"/>
+      <c r="K31" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="25.5">
+      <c r="A32" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="H32" s="31"/>
+      <c r="I32" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J32" s="31"/>
+      <c r="K32" s="25" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="25.5">
+      <c r="A33" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="H33" s="31"/>
+      <c r="I33" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J33" s="31"/>
+      <c r="K33" s="25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="25.5">
+      <c r="A34" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>749</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="25" t="s">
+        <v>755</v>
+      </c>
+      <c r="J34" s="31"/>
+      <c r="K34" s="25" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.5">
+      <c r="A1" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="102">
+      <c r="A2" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63.75">
+      <c r="A3" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>623</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="76.5">
+      <c r="A4" s="31" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>625</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>627</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="89.25">
+      <c r="A5" s="31" t="s">
+        <v>629</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>630</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>631</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51">
+      <c r="A6" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51">
+      <c r="A7" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63.75">
+      <c r="A8" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63.75">
+      <c r="A9" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="63.75">
+      <c r="A10" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63.75">
+      <c r="A11" s="31" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>654</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="E11" s="31">
+        <v>3</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>656</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="63.75">
+      <c r="A12" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>658</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63.75">
+      <c r="A13" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>662</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E13" s="31">
+        <v>2</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>664</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="89.25">
+      <c r="A14" s="31" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>668</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="76.5">
+      <c r="A15" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="89.25">
+      <c r="A16" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="76.5">
+      <c r="A17" s="31" t="s">
+        <v>680</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>681</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>684</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="63.75">
+      <c r="A18" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>687</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63.75">
+      <c r="A19" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>690</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>691</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="63.75">
+      <c r="A20" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>695</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>696</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>698</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="89.25">
+      <c r="A21" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>647</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="76.5">
+      <c r="A22" s="31" t="s">
+        <v>703</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="89.25">
+      <c r="A23" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="51">
+      <c r="A24" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>713</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>692</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="63.75">
+      <c r="A25" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>719</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="63.75">
+      <c r="A26" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>721</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>723</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="102">
+      <c r="A27" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>727</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H27" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I27" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="63.75">
+      <c r="A28" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>730</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I28" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="76.5">
+      <c r="A29" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="76.5">
+      <c r="A30" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>738</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>739</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>740</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>741</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I30" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="76.5">
+      <c r="A31" s="31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>743</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>744</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>745</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="I31" s="31" t="s">
+        <v>628</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>